--- a/meta/4-7-1.xlsx
+++ b/meta/4-7-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C5CBC-FCC8-481E-B37E-8ABFE648E67C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="3" r:id="rId1"/>
@@ -161,8 +162,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,13 +214,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -322,25 +316,25 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,225 +611,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="126" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="298.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="13"/>
     </row>
-    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="15"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
-    </row>
-    <row r="27" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="B25" s="17"/>
+    </row>
+    <row r="26" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="16"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
-      <c r="K65" s="5"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="12"/>
+      <c r="K63" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/meta/4-7-1.xlsx
+++ b/meta/4-7-1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7C5CBC-FCC8-481E-B37E-8ABFE648E67C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141883C-2AC1-47C2-9EB1-214CA9EDD5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист" sheetId="3" r:id="rId1"/>
+    <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,23 +25,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
   <si>
+    <t>Цель</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>Индикатор</t>
+  </si>
+  <si>
     <t>2. Информация об организации</t>
   </si>
   <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>Контактное лицо (лица) / Координатор</t>
+  </si>
+  <si>
+    <t>Электронная почта контактного лица</t>
+  </si>
+  <si>
+    <t>Телефон контактного лица</t>
+  </si>
+  <si>
+    <t>Сайт организации (если есть)</t>
+  </si>
+  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
+    <t>Определение</t>
+  </si>
+  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
+    <t>Обоснование и толкование</t>
+  </si>
+  <si>
     <t>4. Источники данных и методы сбора</t>
   </si>
   <si>
+    <t>Источники данных</t>
+  </si>
+  <si>
+    <t>Методы сбора данных</t>
+  </si>
+  <si>
     <t>5. Метод расчета и другие методологические основы</t>
   </si>
   <si>
@@ -69,107 +105,74 @@
     <t>8. Ссылки и документация</t>
   </si>
   <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
-    <t>Контактное лицо (лица) / Координатор</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
-  </si>
-  <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
-  </si>
-  <si>
-    <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>Министерство образования и науки Кыргызской Республики</t>
-  </si>
-  <si>
-    <t>Пак Зоя Алексеевна</t>
-  </si>
-  <si>
-    <t>Государственный образовательный стандарт, предметные стандарты, общеобразовательные программы, содержани е учебно-методичеких комплексов  направлены на  умение учащихся применять  полученные знания   в реальной жизни.  Сохранение зоровья детей, здоровый образ жизни детей для улучшения условий жизни для устойчивого развития.  содержание учебно-методических материалов напрвлено на овладение учащимися колючевых и предметных компетентностей.</t>
-  </si>
-  <si>
-    <t>Предоставление информации от структурных подразделений МОН КР. Анализ общеобразовательных программ, в которые включены вопросы экологического образования и воспитания. Посещение общеобразовательных школ с целью мониторинга выполенеия учебного плана, общеобразовательных программ, а также организация безопасной образовательной среды в школе.</t>
-  </si>
-  <si>
-    <t>На сайте МОН КР в разделе  "Базисный учебный план. Предметные стандарты"</t>
-  </si>
-  <si>
-    <t>Государственный образовательный стандарт общего школьного образования(21 июля 2014 г. № 403), предметные стандарты. Постановление Правительства КР "Об утверждении актов общественного здравоохранеия от 11 апреля 2016 года № 201. постановление Правительства КР "О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной средй"от 17 июня 2019 года № 295.</t>
-  </si>
-  <si>
-    <t>0550513385, 0312663036</t>
-  </si>
-  <si>
-    <t>zoya.pak.54@mail.ru</t>
-  </si>
-  <si>
-    <t>edu.gov.kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В государственный образовательный стандарт общего школьного образования включены понятия: формирование  ключевых и предметных компетентностей учащихся. Воспитание активной гражданской позиции - это воспитание любви к Родине, духовны ценностям, уважение к культурам других народов.  Организация  безопасной образовательной  среды - это  инфраструктура школы,  экологическое  образование и воспитание, толерантная среда обучения : обеспечение в школе  информационной безопасности,  психологической безопасности на уроках и во внеурочное время.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Также из образовательных организаций республикнского подчинения. Материалы проводимых обучающих семинаров-тренингов для учителй, методистов по экологическому направлению.а также из образовательных организаций республиканского подчинения. Материалы проводимых оучающих семинаров-тренингов для учителей , методистов по экологическому образованию и  воспитанию. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка Государственного образовательного стандарта, предметных  стандартов, которые формируют ключевые и предметные компетентности.Общеобразовательные программы, учебно-методические комплексы, выполнение НПА в оласти образования направлены на реализацию ЦУР для улучшения условий жизни детей. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> К 2030 году обеспечить,  чтобы учащиеся приобретали знания и навыки, необходимые для содействия устойчивому развитию, в том числе посредством обучения по вопросам устойчивого развития и устойчивого образа жизни, прав человека, гендерного равенства, пропаганды культуры мира и ненасилия, гражданства мира и осознания ценности культурного разнообразия и вклада культуры в устойчивое развитие</t>
-  </si>
-  <si>
-    <t>4.7.1.  Статус 
+    <t>Цель 4. Обеспечение всеохватного и справедливого качественного образования и поощрение возможности обучения на протяжении всей жизни для всех</t>
+  </si>
+  <si>
+    <t>4.7.  К 2030 году обеспечить, чтобы учащиеся приобретали знания и навыки, необходимые для содействия устойчивому развитию, в том числе посредством обучения по вопросам устойчивого развития и устойчивого образа жизни, прав человека, гендерного равенства, пропаганды культуры мира и ненасилия, гражданства мира и осознания ценности культурного разнообразия и вклада культуры в устойчивое развитие</t>
+  </si>
+  <si>
+    <t>4.7.1. Статус 
 i) воспитания в духе всемирной гражданственности и 
 ii) пропаганды устойчивого развития (включая просвещение по проблеме изменения климата) в 
 a) в национальной политике в сфере образования; 
 b) в учебных программах; 
-c) в про-граммах подготовки учителей и 
+c) в программах подготовки учителей и 
 d) в системе аттестации учащихся</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Обеспечение всеохватного и справедливого качественного образования и поощрение возможности обучения на протяжении всей жизни для всех </t>
+    <t>Министерство образования и науки КР</t>
+  </si>
+  <si>
+    <t>Пак Зоя Алексеевна</t>
+  </si>
+  <si>
+    <t>zoya.pak.54@mail.ru</t>
+  </si>
+  <si>
+    <t>0550513385, 0312663036</t>
+  </si>
+  <si>
+    <t>edu.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В государственный образовательный стандарт общего школьного образования включены понятия: формирование ключевых и предметных компетентностей учащихся. Воспитание активной гражданской позиции — это воспитание любви к Родине, духовны ценностям, уважение к культурам других народов.  Организация безопасной образовательной среды — это инфраструктура школы, экологическое образование и воспитание, толерантная среда обучения: обеспечение в школе информационной безопасности, психологической безопасности на уроках и во внеурочное время. </t>
+  </si>
+  <si>
+    <t>Государственный образовательный стандарт, предметные стандарты, общеобразовательные программы, содержание учебно-методических комплексов, направленных на умение учащихся применять полученные знания в реальной жизни. Сохранение здоровья детей, здоровый образ жизни детей для улучшения условий жизни для устойчивого развития. Содержание учебно-методических материалов направлено на овладение учащимися ключевых и предметных компетентностей.</t>
+  </si>
+  <si>
+    <t>Разработка Государственного образовательного стандарта, предметных стандартов, которые формируют ключевые и предметные компетентности. Общеобразовательные программы, учебно-методические комплексы, выполнение НПА в области образования направлены на реализацию ЦУР для улучшения условий жизни детей.</t>
+  </si>
+  <si>
+    <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами.</t>
+  </si>
+  <si>
+    <t>На сайте МОН КР в разделе «Базисный учебный план. Предметные стандарты» Нужно указать сайт</t>
+  </si>
+  <si>
+    <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
+Государственный образовательный стандарт школьного общего образования Кыргызской Республики, утвержденный постановлением Правительства Кыргызской Республики от 21 июля 2014 года №403;
+Постановление Правительства КР от 11 апреля 2016 года № 201 «Об утверждении актов общественного здравоохранения»;
+Постановление Правительства КР от 17 июня 2019 года № 295 «О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды».</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,60 +181,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -278,63 +232,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{EAE62D80-1912-4611-8B0B-632B6DD07086}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,9 +273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -390,14 +313,14 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -430,9 +353,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -462,7 +385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,219 +534,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA173664-7784-40F1-8373-1945DCDAF1A7}">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:A26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="61.15625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="133.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="177" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="165" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="298.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="15"/>
-    </row>
-    <row r="23" spans="1:2" ht="28.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="10"/>
-    </row>
-    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="17"/>
-    </row>
-    <row r="26" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" s="12"/>
-      <c r="K63" s="5"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/4-7-1.xlsx
+++ b/meta/4-7-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141883C-2AC1-47C2-9EB1-214CA9EDD5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,25 +146,34 @@
     <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами.</t>
   </si>
   <si>
-    <t>На сайте МОН КР в разделе «Базисный учебный план. Предметные стандарты» Нужно указать сайт</t>
-  </si>
-  <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 Государственный образовательный стандарт школьного общего образования Кыргызской Республики, утвержденный постановлением Правительства Кыргызской Республики от 21 июля 2014 года №403;
 Постановление Правительства КР от 11 апреля 2016 года № 201 «Об утверждении актов общественного здравоохранения»;
 Постановление Правительства КР от 17 июня 2019 года № 295 «О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды».</t>
   </si>
+  <si>
+    <t>ГОС ШОО, ГОС СПО, ГОС ВПО – www.toktom.kg, 
+Сайт Кыргызской Академии образования (предметные стандарты, программы и УМК) - kao.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,32 +240,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{EAE62D80-1912-4611-8B0B-632B6DD07086}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,11 +546,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA173664-7784-40F1-8373-1945DCDAF1A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,8 +720,8 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>38</v>
+      <c r="B23" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/meta/4-7-1.xlsx
+++ b/meta/4-7-1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Глобальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6141883C-2AC1-47C2-9EB1-214CA9EDD5CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,34 +147,25 @@
     <t>Выполнение учебного плана в соответствии с предметными стандартами и общеобразовательными программами.</t>
   </si>
   <si>
+    <t>На сайте МОН КР в разделе «Базисный учебный план. Предметные стандарты» Нужно указать сайт</t>
+  </si>
+  <si>
     <t>Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 Государственный образовательный стандарт школьного общего образования Кыргызской Республики, утвержденный постановлением Правительства Кыргызской Республики от 21 июля 2014 года №403;
 Постановление Правительства КР от 11 апреля 2016 года № 201 «Об утверждении актов общественного здравоохранения»;
 Постановление Правительства КР от 17 июня 2019 года № 295 «О внесении изменений в некоторые решения Правительства КР по вопросам безопасной образовательной среды».</t>
   </si>
-  <si>
-    <t>ГОС ШОО, ГОС СПО, ГОС ВПО – www.toktom.kg, 
-Сайт Кыргызской Академии образования (предметные стандарты, программы и УМК) - kao.kg</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,36 +232,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{EAE62D80-1912-4611-8B0B-632B6DD07086}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -546,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA173664-7784-40F1-8373-1945DCDAF1A7}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,8 +708,8 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>39</v>
+      <c r="B23" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
